--- a/prueba/prueba.xlsx
+++ b/prueba/prueba.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://iteso01-my.sharepoint.com/personal/pbenavides_iteso_mx/Documents/Docencia/Series de tiempo/repos/gondolin/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://iteso01-my.sharepoint.com/personal/pbenavides_iteso_mx/Documents/Docencia/Series de tiempo/repos/gondolin/prueba/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="11_F25DC773A252ABDACC1048E3619D40DC5BDE58F4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5B1B5E79-DE65-4D35-A30B-056158E6BAE8}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="11_F25DC773A252ABDACC1048E3619D40DC5BDE58F4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7146C3F4-1DE1-495E-8B1A-FC27C6356FCF}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -358,10 +358,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -414,6 +414,14 @@
         <v>57</v>
       </c>
     </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>432</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
